--- a/data/analytical_report.xlsx
+++ b/data/analytical_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="19">
   <si>
     <t>Менеджер</t>
   </si>
@@ -49,6 +49,12 @@
     <t>Весь отдел</t>
   </si>
   <si>
+    <t>База для пролонгации (сумма)</t>
+  </si>
+  <si>
+    <t>База для пролонгации (кол-во)</t>
+  </si>
+  <si>
     <t>Коэффициент 1</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>Коэффициент 2 (Год)</t>
+  </si>
+  <si>
+    <t>База для пролонгации (сумма, Год)</t>
   </si>
   <si>
     <t>Годовой</t>
@@ -423,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,7 +466,7 @@
         <v>44927</v>
       </c>
       <c r="E2">
-        <v>2.403191489361702</v>
+        <v>28200</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -474,7 +483,7 @@
         <v>44927</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -485,13 +494,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.403191489361702</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -502,10 +511,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -522,10 +531,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="E6">
-        <v>1.754291720191522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -539,7 +548,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -553,10 +562,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -570,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -590,10 +599,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>171260</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -607,10 +616,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -621,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1.754291720191522</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -638,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -658,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -675,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -689,10 +698,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>45139</v>
+        <v>45017</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -706,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>45139</v>
+        <v>45017</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -726,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -743,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="2">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -757,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2">
-        <v>45200</v>
+        <v>45047</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -774,10 +783,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2">
-        <v>45200</v>
+        <v>45047</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -794,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -811,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="2">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -825,10 +834,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2">
-        <v>45261</v>
+        <v>45078</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -842,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2">
-        <v>45261</v>
+        <v>45078</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -859,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45108</v>
       </c>
       <c r="E26">
-        <v>1.846034292589993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -876,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45108</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -890,13 +899,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2">
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -907,13 +916,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2">
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -924,13 +933,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -941,13 +950,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -958,13 +967,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -975,13 +984,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -992,13 +1001,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>45017</v>
+        <v>45170</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1009,13 +1018,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2">
-        <v>45017</v>
+        <v>45170</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1026,13 +1035,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>45047</v>
+        <v>45170</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1043,13 +1052,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2">
-        <v>45047</v>
+        <v>45170</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1060,13 +1069,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>45078</v>
+        <v>45200</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1077,13 +1086,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2">
-        <v>45078</v>
+        <v>45200</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1094,13 +1103,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1111,13 +1120,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1128,13 +1137,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1145,13 +1154,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1162,16 +1171,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="E44">
-        <v>1.028618181818182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1179,13 +1188,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1196,16 +1205,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="E46">
-        <v>2.782846760454711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1213,13 +1222,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1230,13 +1239,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1247,13 +1256,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1264,16 +1273,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45261</v>
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1.846034292589993</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1281,13 +1290,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45261</v>
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1298,16 +1307,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>2.435048140058751</v>
+        <v>199460</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1318,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44927</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1332,16 +1341,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2">
         <v>44927</v>
       </c>
       <c r="E54">
-        <v>0.6099118582462517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1349,10 +1358,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2">
         <v>44927</v>
@@ -1366,13 +1375,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1383,10 +1392,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2">
         <v>44958</v>
@@ -1400,16 +1409,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="E58">
-        <v>2.498220973782772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1417,13 +1426,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1434,13 +1443,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1451,13 +1460,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1468,13 +1477,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1485,13 +1494,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1502,13 +1511,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1519,13 +1528,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1536,13 +1545,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1553,13 +1562,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1570,13 +1579,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2">
-        <v>45139</v>
+        <v>45017</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1587,13 +1596,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1604,13 +1613,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1621,13 +1630,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1638,13 +1647,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2">
-        <v>45200</v>
+        <v>45047</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1655,13 +1664,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1672,16 +1681,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="E74">
-        <v>1.053120243531202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1689,13 +1698,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1706,16 +1715,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2">
-        <v>45261</v>
+        <v>45078</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1723,13 +1732,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2">
-        <v>45261</v>
+        <v>45108</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1740,16 +1749,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45108</v>
       </c>
       <c r="E78">
-        <v>1.546458119793643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1757,13 +1766,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45108</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1774,13 +1783,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2">
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1791,13 +1800,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>44927</v>
+        <v>45139</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1808,13 +1817,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1825,13 +1834,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1842,13 +1851,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1859,16 +1868,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>137500</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1876,16 +1885,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2">
-        <v>45017</v>
+        <v>45170</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1893,16 +1902,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2">
-        <v>45017</v>
+        <v>45170</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1.028618181818182</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1910,13 +1919,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2">
-        <v>45047</v>
+        <v>45170</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1927,16 +1936,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" s="2">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>556023.25</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1944,16 +1953,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2">
-        <v>45078</v>
+        <v>45200</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1961,16 +1970,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2">
-        <v>45078</v>
+        <v>45200</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2.782846760454711</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1978,13 +1987,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1995,13 +2004,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2012,13 +2021,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2029,13 +2038,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2046,13 +2055,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2063,13 +2072,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2080,13 +2089,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2097,13 +2106,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2114,13 +2123,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2131,16 +2140,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2">
-        <v>45231</v>
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2.435048140058751</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2148,13 +2157,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="2">
-        <v>45261</v>
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2165,16 +2174,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2">
-        <v>45261</v>
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>693523.25</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2182,16 +2191,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D104" s="2">
+        <v>44927</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>137562.5</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2199,16 +2208,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D105" s="2">
+        <v>44927</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2216,16 +2225,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2">
         <v>44927</v>
       </c>
       <c r="E106">
-        <v>0.9615688787493059</v>
+        <v>0.6099118582462517</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2233,10 +2242,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2">
         <v>44927</v>
@@ -2250,7 +2259,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -2259,7 +2268,7 @@
         <v>44958</v>
       </c>
       <c r="E108">
-        <v>2.46727320908047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2267,7 +2276,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -2284,13 +2293,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2301,13 +2310,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2318,16 +2327,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>106800</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2335,16 +2344,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2352,16 +2361,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="E114">
-        <v>3.948778752667773</v>
+        <v>2.498220973782772</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2369,13 +2378,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2386,13 +2395,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2403,13 +2412,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2420,13 +2429,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2437,13 +2446,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2454,13 +2463,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="2">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2471,13 +2480,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2488,13 +2497,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2505,13 +2514,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D123" s="2">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2522,16 +2531,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="E124">
-        <v>4.008898508898509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2539,13 +2548,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2556,13 +2565,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2573,13 +2582,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2590,13 +2599,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>45261</v>
+        <v>45108</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2607,13 +2616,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2">
-        <v>45261</v>
+        <v>45108</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2624,16 +2633,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
-      <c r="D130" t="s">
-        <v>15</v>
+      <c r="D130" s="2">
+        <v>45108</v>
       </c>
       <c r="E130">
-        <v>2.713674541767416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2641,13 +2650,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
-      <c r="D131" t="s">
-        <v>15</v>
+      <c r="D131" s="2">
+        <v>45108</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -2658,13 +2667,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>44927</v>
+        <v>45139</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -2675,13 +2684,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2">
-        <v>44927</v>
+        <v>45139</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -2692,13 +2701,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -2709,13 +2718,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -2726,13 +2735,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -2743,13 +2752,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2">
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -2760,13 +2769,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2">
-        <v>45017</v>
+        <v>45170</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -2777,13 +2786,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2">
-        <v>45017</v>
+        <v>45170</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -2794,13 +2803,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -2811,13 +2820,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -2828,13 +2837,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2">
-        <v>45078</v>
+        <v>45200</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -2845,13 +2854,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2">
-        <v>45078</v>
+        <v>45200</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -2862,16 +2871,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>65700</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2879,16 +2888,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2">
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2896,16 +2905,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1.053120243531202</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2913,13 +2922,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -2930,16 +2939,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>131405</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2947,16 +2956,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2964,16 +2973,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2981,13 +2990,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D151" s="2">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -2998,16 +3007,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="2">
-        <v>45231</v>
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1.546458119793643</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3015,13 +3024,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2">
-        <v>45231</v>
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3032,16 +3041,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="2">
-        <v>45261</v>
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>441467.5</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3049,13 +3058,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>45261</v>
+        <v>44927</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3066,16 +3075,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D156" s="2">
+        <v>44927</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3083,13 +3092,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D157" s="2">
+        <v>44927</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -3100,16 +3109,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2">
         <v>44927</v>
       </c>
       <c r="E158">
-        <v>1.701698006515607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3117,13 +3126,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D159" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -3134,16 +3143,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2">
         <v>44958</v>
       </c>
       <c r="E160">
-        <v>3.084091511350588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3151,10 +3160,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2">
         <v>44958</v>
@@ -3168,16 +3177,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D162" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="E162">
-        <v>2.040027332230454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3185,10 +3194,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D163" s="2">
         <v>44986</v>
@@ -3202,13 +3211,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -3219,13 +3228,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -3236,16 +3245,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D166" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="E166">
-        <v>4.935973440834717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3253,13 +3262,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D167" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -3270,13 +3279,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -3287,13 +3296,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -3304,13 +3313,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D170" s="2">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -3321,13 +3330,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D171" s="2">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -3338,13 +3347,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -3355,13 +3364,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D173" s="2">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -3372,16 +3381,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D174" s="2">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="E174">
-        <v>1.028618181818182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3389,13 +3398,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D175" s="2">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -3406,16 +3415,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="E176">
-        <v>2.958372166277525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3423,13 +3432,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -3440,16 +3449,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D178" s="2">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="E178">
-        <v>1.053120243531202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3457,13 +3466,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D179" s="2">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -3474,16 +3483,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2">
-        <v>45261</v>
+        <v>45108</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3491,13 +3500,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2">
-        <v>45261</v>
+        <v>45108</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -3508,16 +3517,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
-      </c>
-      <c r="D182" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45108</v>
       </c>
       <c r="E182">
-        <v>2.562929816864521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3525,16 +3534,2991 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E206">
+        <v>210015.21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E208">
+        <v>0.9615688787493059</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E210">
+        <v>226420</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E212">
+        <v>2.46727320908047</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E222">
+        <v>168680</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E224">
+        <v>3.948778752667773</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>11</v>
+      </c>
+      <c r="D242" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E242">
+        <v>166320</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E244">
+        <v>4.008898508898509</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254">
+        <v>2.713674541767416</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" t="s">
+        <v>18</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" t="s">
+        <v>18</v>
+      </c>
+      <c r="E256">
+        <v>771435.21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>14</v>
+      </c>
+      <c r="D260" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264" t="s">
+        <v>14</v>
+      </c>
+      <c r="D264" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>11</v>
+      </c>
+      <c r="D265" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" t="s">
+        <v>14</v>
+      </c>
+      <c r="D268" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D287" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>11</v>
+      </c>
+      <c r="D293" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E293">
+        <v>124500</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>13</v>
+      </c>
+      <c r="D295" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
+      <c r="D301" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" t="s">
+        <v>18</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" t="s">
+        <v>18</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>17</v>
+      </c>
+      <c r="D307" t="s">
+        <v>18</v>
+      </c>
+      <c r="E307">
+        <v>124500</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
         <v>10</v>
       </c>
-      <c r="C183" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="C308" t="s">
+        <v>11</v>
+      </c>
+      <c r="D308" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E308">
+        <v>375777.71</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E310">
+        <v>1.701698006515607</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" t="s">
+        <v>11</v>
+      </c>
+      <c r="D312" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E312">
+        <v>226420</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" t="s">
+        <v>13</v>
+      </c>
+      <c r="D314" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E314">
+        <v>3.084091511350588</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" t="s">
+        <v>14</v>
+      </c>
+      <c r="D315" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" t="s">
+        <v>11</v>
+      </c>
+      <c r="D316" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E316">
+        <v>278060</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E318">
+        <v>2.040027332230454</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" t="s">
+        <v>11</v>
+      </c>
+      <c r="D320" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E324">
+        <v>168680</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E326">
+        <v>4.935973440834717</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" t="s">
+        <v>14</v>
+      </c>
+      <c r="D327" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" t="s">
+        <v>14</v>
+      </c>
+      <c r="D331" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" t="s">
+        <v>14</v>
+      </c>
+      <c r="D335" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E340">
+        <v>137500</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E342">
+        <v>1.028618181818182</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" t="s">
+        <v>14</v>
+      </c>
+      <c r="D343" s="2">
+        <v>45170</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
+      <c r="D344" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E344">
+        <v>846843.25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E346">
+        <v>2.958372166277525</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E348">
+        <v>65700</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E350">
+        <v>1.053120243531202</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" t="s">
+        <v>14</v>
+      </c>
+      <c r="D351" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E352">
+        <v>131405</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" t="s">
+        <v>12</v>
+      </c>
+      <c r="D353" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>10</v>
+      </c>
+      <c r="C354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" t="s">
+        <v>14</v>
+      </c>
+      <c r="D355" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" t="s">
         <v>15</v>
       </c>
-      <c r="E183">
-        <v>0</v>
+      <c r="D356" t="s">
+        <v>18</v>
+      </c>
+      <c r="E356">
+        <v>2.562929816864521</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" t="s">
+        <v>18</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" t="s">
+        <v>17</v>
+      </c>
+      <c r="D358" t="s">
+        <v>18</v>
+      </c>
+      <c r="E358">
+        <v>2230385.96</v>
       </c>
     </row>
   </sheetData>
